--- a/lab2/homework/song.xlsx
+++ b/lab2/homework/song.xlsx
@@ -15,12 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Camila Cabello</t>
+  </si>
+  <si>
+    <t>Never Be the Same (feat. Kane Brown)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Bebe Rexha &amp; Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Meant to Be</t>
+  </si>
+  <si>
+    <t>2.</t>
   </si>
   <si>
     <t>Julia Harriman, Lexi Lawson, Rachelle Ann Go, Shoba Narayan &amp; Ari Afsar</t>
@@ -29,10 +50,43 @@
     <t>First Burn</t>
   </si>
   <si>
-    <t>Camila Cabello</t>
-  </si>
-  <si>
-    <t>Never Be the Same (feat. Kane Brown)</t>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Whatever It Takes</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>No Tears Left to Cry</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Mason Ramsey</t>
+  </si>
+  <si>
+    <t>Famous</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Zedd, Maren Morris &amp; Grey</t>
+  </si>
+  <si>
+    <t>The Middle</t>
+  </si>
+  <si>
+    <t>7.</t>
   </si>
   <si>
     <t>Pryor Baird</t>
@@ -41,16 +95,7 @@
     <t>Night Moves (The Voice Performance)</t>
   </si>
   <si>
-    <t>Bebe Rexha &amp; Florida Georgia Line</t>
-  </si>
-  <si>
-    <t>Meant to Be</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
-    <t>Whatever It Takes</t>
+    <t>8.</t>
   </si>
   <si>
     <t>Britton Buchanan</t>
@@ -59,22 +104,7 @@
     <t>Perfect (The Voice Performance)</t>
   </si>
   <si>
-    <t>Mason Ramsey</t>
-  </si>
-  <si>
-    <t>Famous</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
-    <t>No Tears Left to Cry</t>
-  </si>
-  <si>
-    <t>Zedd, Maren Morris &amp; Grey</t>
-  </si>
-  <si>
-    <t>The Middle</t>
+    <t>9.</t>
   </si>
   <si>
     <t>Jason Aldean</t>
@@ -83,28 +113,43 @@
     <t>You Make It Easy</t>
   </si>
   <si>
+    <t>10.</t>
+  </si>
+  <si>
     <t>Kane Brown</t>
   </si>
   <si>
     <t>Heaven</t>
   </si>
   <si>
+    <t>11.</t>
+  </si>
+  <si>
     <t>Ed Sheeran</t>
   </si>
   <si>
     <t>Perfect</t>
   </si>
   <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>No Excuses</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
     <t>Bad Wolves</t>
   </si>
   <si>
     <t>Zombie</t>
   </si>
   <si>
-    <t>Meghan Trainor</t>
-  </si>
-  <si>
-    <t>No Excuses</t>
+    <t>14.</t>
   </si>
   <si>
     <t>Jason Mraz</t>
@@ -113,250 +158,607 @@
     <t>Have It All</t>
   </si>
   <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Never Be the Same</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Get Along</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>In My Blood</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Keala Settle &amp; The Greatest Showman Ensemble</t>
+  </si>
+  <si>
+    <t>This Is Me</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Say Something (feat. Chris Stapleton)</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Havana (feat. Young Thug)</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Delicate</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Dan + Shay</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Keith Urban</t>
+  </si>
+  <si>
+    <t>Coming Home (feat. Julia Michaels)</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
     <t>Spensha Baker</t>
   </si>
   <si>
     <t>Better Man (The Voice Performance)</t>
   </si>
   <si>
-    <t>Never Be the Same</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Kenny Chesney</t>
-  </si>
-  <si>
-    <t>Get Along</t>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>Morgan Wallen</t>
+  </si>
+  <si>
+    <t>Up Down (feat. Florida Georgia Line)</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Most People Are Good</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Jackie Foster</t>
+  </si>
+  <si>
+    <t>Love Reign O’er Me (The Voice Performance)</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>Call Out My Name</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>Luke Combs</t>
+  </si>
+  <si>
+    <t>One Number Away</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>Brett Young</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Dura (feat. Becky G, Bad Bunny &amp; Natti Natasha) [Remix]</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Lift Yourself</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Calvin Harris, Dua Lipa</t>
+  </si>
+  <si>
+    <t>One Kiss</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>Brynn Cartelli</t>
+  </si>
+  <si>
+    <t>Yoü and I (The Voice Performance)</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>Alice Merton</t>
+  </si>
+  <si>
+    <t>No Roots</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>God's Plan</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>Ella Mai</t>
+  </si>
+  <si>
+    <t>Boo'd Up</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>Rayshun LaMarr</t>
+  </si>
+  <si>
+    <t>Try a Little Tenderness (The Voice Performance)</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Paranoid</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>Foster the People</t>
+  </si>
+  <si>
+    <t>Sit Next to Me</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>David Lee Murphy &amp; Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Everything's Gonna Be Alright</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>Loren Allred</t>
+  </si>
+  <si>
+    <t>Never Enough</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>Feel It Still</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Cry Pretty</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>Tell Me You Love Me</t>
+  </si>
+  <si>
+    <t>48.</t>
+  </si>
+  <si>
+    <t>Jordan Davis</t>
+  </si>
+  <si>
+    <t>Singles You Up</t>
+  </si>
+  <si>
+    <t>49.</t>
+  </si>
+  <si>
+    <t>Blake Shelton</t>
+  </si>
+  <si>
+    <t>I Lived It</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Finesse (Remix) [feat. Cardi B]</t>
+  </si>
+  <si>
+    <t>51.</t>
+  </si>
+  <si>
+    <t>Believer</t>
+  </si>
+  <si>
+    <t>52.</t>
+  </si>
+  <si>
+    <t>Kyla Jade</t>
+  </si>
+  <si>
+    <t>Sweet Sweet Baby (Since You’ve Been Gone) [The Voice Performance]</t>
+  </si>
+  <si>
+    <t>53.</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>Marry Me</t>
+  </si>
+  <si>
+    <t>54.</t>
+  </si>
+  <si>
+    <t>The Champion (feat. Ludacris)</t>
+  </si>
+  <si>
+    <t>55.</t>
+  </si>
+  <si>
+    <t>Khalid &amp; Normani</t>
+  </si>
+  <si>
+    <t>Love Lies</t>
+  </si>
+  <si>
+    <t>56.</t>
+  </si>
+  <si>
+    <t>Hugh Jackman, Keala Settle, Zac Efron, Zendaya &amp; The Greatest Showman Ensemble</t>
+  </si>
+  <si>
+    <t>The Greatest Show</t>
+  </si>
+  <si>
+    <t>57.</t>
+  </si>
+  <si>
+    <t>Jackie Verna</t>
+  </si>
+  <si>
+    <t>Strawberry Wine (The Voice Performance)</t>
+  </si>
+  <si>
+    <t>58.</t>
+  </si>
+  <si>
+    <t>What Ifs (feat. Lauren Alaina)</t>
+  </si>
+  <si>
+    <t>59.</t>
+  </si>
+  <si>
+    <t>Chris Stapleton</t>
+  </si>
+  <si>
+    <t>Tennessee Whiskey</t>
+  </si>
+  <si>
+    <t>60.</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>El Anillo</t>
+  </si>
+  <si>
+    <t>61.</t>
+  </si>
+  <si>
+    <t>Broken Halos</t>
+  </si>
+  <si>
+    <t>62.</t>
+  </si>
+  <si>
+    <t>Dierks Bentley</t>
+  </si>
+  <si>
+    <t>Woman, Amen</t>
+  </si>
+  <si>
+    <t>63.</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Done For Me (feat. Kehlani)</t>
+  </si>
+  <si>
+    <t>64.</t>
+  </si>
+  <si>
+    <t>Zac Efron &amp; Zendaya</t>
+  </si>
+  <si>
+    <t>Rewrite the Stars</t>
+  </si>
+  <si>
+    <t>65.</t>
+  </si>
+  <si>
+    <t>Godsmack</t>
+  </si>
+  <si>
+    <t>Bulletproof</t>
+  </si>
+  <si>
+    <t>66.</t>
+  </si>
+  <si>
+    <t>AJR</t>
+  </si>
+  <si>
+    <t>Sober Up (feat. Rivers Cuomo)</t>
+  </si>
+  <si>
+    <t>67.</t>
+  </si>
+  <si>
+    <t>Panic! At the Disco</t>
+  </si>
+  <si>
+    <t>Say Amen (Saturday Night)</t>
+  </si>
+  <si>
+    <t>68.</t>
+  </si>
+  <si>
+    <t>Nicky Jam &amp; J Balvin</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>69.</t>
+  </si>
+  <si>
+    <t>Sugarland</t>
+  </si>
+  <si>
+    <t>Babe (feat. Taylor Swift)</t>
+  </si>
+  <si>
+    <t>70.</t>
+  </si>
+  <si>
+    <t>*NSYNC</t>
+  </si>
+  <si>
+    <t>It's Gonna Be Me</t>
+  </si>
+  <si>
+    <t>71.</t>
+  </si>
+  <si>
+    <t>Lauv</t>
+  </si>
+  <si>
+    <t>I Like Me Better</t>
+  </si>
+  <si>
+    <t>72.</t>
   </si>
   <si>
     <t>Shawn Mendes</t>
   </si>
   <si>
-    <t>In My Blood</t>
-  </si>
-  <si>
-    <t>Keala Settle &amp; The Greatest Showman Ensemble</t>
-  </si>
-  <si>
-    <t>This Is Me</t>
-  </si>
-  <si>
-    <t>Rayshun LaMarr</t>
-  </si>
-  <si>
-    <t>Try a Little Tenderness (The Voice Performance)</t>
-  </si>
-  <si>
-    <t>Jackie Foster</t>
-  </si>
-  <si>
-    <t>Love Reign O’er Me (The Voice Performance)</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Say Something (feat. Chris Stapleton)</t>
-  </si>
-  <si>
-    <t>Thunder</t>
-  </si>
-  <si>
-    <t>Brynn Cartelli</t>
-  </si>
-  <si>
-    <t>Yoü and I (The Voice Performance)</t>
-  </si>
-  <si>
-    <t>Kyla Jade</t>
-  </si>
-  <si>
-    <t>Sweet Sweet Baby (Since You’ve Been Gone) [The Voice Performance]</t>
-  </si>
-  <si>
-    <t>Havana (feat. Young Thug)</t>
-  </si>
-  <si>
-    <t>Keith Urban</t>
-  </si>
-  <si>
-    <t>Coming Home (feat. Julia Michaels)</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
-    <t>Most People Are Good</t>
-  </si>
-  <si>
-    <t>Dan + Shay</t>
-  </si>
-  <si>
-    <t>Tequila</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Delicate</t>
-  </si>
-  <si>
-    <t>Morgan Wallen</t>
-  </si>
-  <si>
-    <t>Up Down (feat. Florida Georgia Line)</t>
-  </si>
-  <si>
-    <t>Daddy Yankee</t>
-  </si>
-  <si>
-    <t>Dura (feat. Becky G, Bad Bunny &amp; Natti Natasha) [Remix]</t>
-  </si>
-  <si>
-    <t>The Weeknd</t>
-  </si>
-  <si>
-    <t>Call Out My Name</t>
-  </si>
-  <si>
-    <t>Post Malone</t>
-  </si>
-  <si>
-    <t>Paranoid</t>
-  </si>
-  <si>
-    <t>Jackie Verna</t>
-  </si>
-  <si>
-    <t>Strawberry Wine (The Voice Performance)</t>
-  </si>
-  <si>
-    <t>Luke Combs</t>
-  </si>
-  <si>
-    <t>One Number Away</t>
-  </si>
-  <si>
-    <t>Loren Allred</t>
-  </si>
-  <si>
-    <t>Never Enough</t>
-  </si>
-  <si>
-    <t>Brett Young</t>
-  </si>
-  <si>
-    <t>Mercy</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>God's Plan</t>
-  </si>
-  <si>
-    <t>Calvin Harris, Dua Lipa</t>
-  </si>
-  <si>
-    <t>One Kiss</t>
-  </si>
-  <si>
-    <t>Alice Merton</t>
-  </si>
-  <si>
-    <t>No Roots</t>
-  </si>
-  <si>
-    <t>Ella Mai</t>
-  </si>
-  <si>
-    <t>Boo'd Up</t>
-  </si>
-  <si>
-    <t>Blake Shelton</t>
-  </si>
-  <si>
-    <t>I Lived It</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
-    <t>Tell Me You Love Me</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
-  </si>
-  <si>
-    <t>Cry Pretty</t>
-  </si>
-  <si>
-    <t>Hugh Jackman, Keala Settle, Zac Efron, Zendaya &amp; The Greatest Showman Ensemble</t>
-  </si>
-  <si>
-    <t>The Greatest Show</t>
-  </si>
-  <si>
-    <t>Jordan Davis</t>
-  </si>
-  <si>
-    <t>Singles You Up</t>
-  </si>
-  <si>
-    <t>Foster the People</t>
-  </si>
-  <si>
-    <t>Sit Next to Me</t>
-  </si>
-  <si>
-    <t>David Lee Murphy &amp; Kenny Chesney</t>
-  </si>
-  <si>
-    <t>Everything's Gonna Be Alright</t>
-  </si>
-  <si>
-    <t>Portugal. The Man</t>
-  </si>
-  <si>
-    <t>Feel It Still</t>
-  </si>
-  <si>
-    <t>Thomas Rhett</t>
-  </si>
-  <si>
-    <t>Marry Me</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>Finesse (Remix) [feat. Cardi B]</t>
-  </si>
-  <si>
-    <t>Believer</t>
-  </si>
-  <si>
-    <t>Jennifer Lopez</t>
-  </si>
-  <si>
-    <t>El Anillo</t>
-  </si>
-  <si>
-    <t>Zac Efron &amp; Zendaya</t>
-  </si>
-  <si>
-    <t>Rewrite the Stars</t>
-  </si>
-  <si>
-    <t>The Champion (feat. Ludacris)</t>
-  </si>
-  <si>
-    <t>What Ifs (feat. Lauren Alaina)</t>
+    <t>73.</t>
+  </si>
+  <si>
+    <t>Little Big Town</t>
+  </si>
+  <si>
+    <t>Better Man</t>
+  </si>
+  <si>
+    <t>74.</t>
+  </si>
+  <si>
+    <t>Ziv Zaifman, Hugh Jackman &amp; Michelle Williams</t>
+  </si>
+  <si>
+    <t>A Million Dreams</t>
+  </si>
+  <si>
+    <t>75.</t>
+  </si>
+  <si>
+    <t>The Spinners</t>
+  </si>
+  <si>
+    <t>Rubberband Man</t>
+  </si>
+  <si>
+    <t>76.</t>
+  </si>
+  <si>
+    <t>Cory Asbury</t>
+  </si>
+  <si>
+    <t>Reckless Love</t>
+  </si>
+  <si>
+    <t>77.</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Let You Down</t>
+  </si>
+  <si>
+    <t>78.</t>
+  </si>
+  <si>
+    <t>Chris Lane</t>
+  </si>
+  <si>
+    <t>Take Back Home Girl (feat. Tori Kelly)</t>
+  </si>
+  <si>
+    <t>79.</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>80.</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Alone (feat. Big Sean &amp; Stefflon Don)</t>
+  </si>
+  <si>
+    <t>81.</t>
+  </si>
+  <si>
+    <t>CAN'T STOP THE FEELING!</t>
+  </si>
+  <si>
+    <t>82.</t>
+  </si>
+  <si>
+    <t>Dua Lipa</t>
+  </si>
+  <si>
+    <t>New Rules</t>
+  </si>
+  <si>
+    <t>83.</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Wake Me Up</t>
+  </si>
+  <si>
+    <t>84.</t>
+  </si>
+  <si>
+    <t>Jake Owen</t>
+  </si>
+  <si>
+    <t>I Was Jack (You Were Diane)</t>
+  </si>
+  <si>
+    <t>85.</t>
   </si>
   <si>
     <t>Christiana Danielle</t>
@@ -365,10 +767,70 @@
     <t>Umbrella (The Voice Performance)</t>
   </si>
   <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>Bulletproof</t>
+    <t>86.</t>
+  </si>
+  <si>
+    <t>Rudimental</t>
+  </si>
+  <si>
+    <t>These Days (feat. Jess Glynne, Macklemore &amp; Dan Caplen)</t>
+  </si>
+  <si>
+    <t>87.</t>
+  </si>
+  <si>
+    <t>When Legends Rise</t>
+  </si>
+  <si>
+    <t>88.</t>
+  </si>
+  <si>
+    <t>Bad at Love</t>
+  </si>
+  <si>
+    <t>89.</t>
+  </si>
+  <si>
+    <t>Cole Swindell</t>
+  </si>
+  <si>
+    <t>Break Up in the End</t>
+  </si>
+  <si>
+    <t>90.</t>
+  </si>
+  <si>
+    <t>91.</t>
+  </si>
+  <si>
+    <t>The Chainsmokers &amp; Coldplay</t>
+  </si>
+  <si>
+    <t>Something Just Like This</t>
+  </si>
+  <si>
+    <t>92.</t>
+  </si>
+  <si>
+    <t>TobyMac</t>
+  </si>
+  <si>
+    <t>I just need U.</t>
+  </si>
+  <si>
+    <t>93.</t>
+  </si>
+  <si>
+    <t>Shape of You</t>
+  </si>
+  <si>
+    <t>94.</t>
+  </si>
+  <si>
+    <t>In Case You Didn't Know</t>
+  </si>
+  <si>
+    <t>95.</t>
   </si>
   <si>
     <t>Kaleb Lee</t>
@@ -377,127 +839,16 @@
     <t>T-R-O-U-B-L-E (The Voice Performance)</t>
   </si>
   <si>
-    <t>Chris Stapleton</t>
-  </si>
-  <si>
-    <t>Tennessee Whiskey</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Lift Yourself</t>
-  </si>
-  <si>
-    <t>Broken Halos</t>
-  </si>
-  <si>
-    <t>The Spinners</t>
-  </si>
-  <si>
-    <t>Rubberband Man</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
-  </si>
-  <si>
-    <t>Done For Me (feat. Kehlani)</t>
-  </si>
-  <si>
-    <t>Dierks Bentley</t>
-  </si>
-  <si>
-    <t>Woman, Amen</t>
-  </si>
-  <si>
-    <t>Khalid &amp; Normani</t>
-  </si>
-  <si>
-    <t>Love Lies</t>
-  </si>
-  <si>
-    <t>Sugarland</t>
-  </si>
-  <si>
-    <t>Babe (feat. Taylor Swift)</t>
-  </si>
-  <si>
-    <t>Little Big Town</t>
-  </si>
-  <si>
-    <t>Better Man</t>
-  </si>
-  <si>
-    <t>Ziv Zaifman, Hugh Jackman &amp; Michelle Williams</t>
-  </si>
-  <si>
-    <t>A Million Dreams</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>Let You Down</t>
-  </si>
-  <si>
-    <t>AJR</t>
-  </si>
-  <si>
-    <t>Sober Up (feat. Rivers Cuomo)</t>
-  </si>
-  <si>
-    <t>Cory Asbury</t>
-  </si>
-  <si>
-    <t>Reckless Love</t>
-  </si>
-  <si>
-    <t>Living</t>
-  </si>
-  <si>
-    <t>Lauv</t>
-  </si>
-  <si>
-    <t>I Like Me Better</t>
-  </si>
-  <si>
-    <t>Avicii</t>
-  </si>
-  <si>
-    <t>Wake Me Up</t>
-  </si>
-  <si>
-    <t>Nicky Jam &amp; J Balvin</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Panic! At the Disco</t>
-  </si>
-  <si>
-    <t>Say Amen (Saturday Night)</t>
-  </si>
-  <si>
-    <t>Dua Lipa</t>
-  </si>
-  <si>
-    <t>New Rules</t>
-  </si>
-  <si>
-    <t>When Legends Rise</t>
-  </si>
-  <si>
-    <t>Jake Owen</t>
-  </si>
-  <si>
-    <t>I Was Jack (You Were Diane)</t>
-  </si>
-  <si>
-    <t>Chris Lane</t>
-  </si>
-  <si>
-    <t>Take Back Home Girl (feat. Tori Kelly)</t>
+    <t>96.</t>
+  </si>
+  <si>
+    <t>Sam Hunt</t>
+  </si>
+  <si>
+    <t>Body Like a Back Road</t>
+  </si>
+  <si>
+    <t>97.</t>
   </si>
   <si>
     <t>Kygo &amp; Miguel</t>
@@ -506,37 +857,16 @@
     <t>Remind Me to Forget</t>
   </si>
   <si>
-    <t>Halsey</t>
-  </si>
-  <si>
-    <t>Alone (feat. Big Sean &amp; Stefflon Don)</t>
-  </si>
-  <si>
-    <t>CAN'T STOP THE FEELING!</t>
-  </si>
-  <si>
-    <t>Rudimental</t>
-  </si>
-  <si>
-    <t>These Days (feat. Jess Glynne, Macklemore &amp; Dan Caplen)</t>
-  </si>
-  <si>
-    <t>Shape of You</t>
-  </si>
-  <si>
-    <t>Cole Swindell</t>
-  </si>
-  <si>
-    <t>Break Up in the End</t>
-  </si>
-  <si>
-    <t>Bad at Love</t>
-  </si>
-  <si>
-    <t>Blame It On Me</t>
-  </si>
-  <si>
-    <t>In Case You Didn't Know</t>
+    <t>98.</t>
+  </si>
+  <si>
+    <t>Luis Fonsi &amp; Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Despacito (feat. Justin Bieber) [Remix]</t>
+  </si>
+  <si>
+    <t>99.</t>
   </si>
   <si>
     <t>Willie Nelson</t>
@@ -545,28 +875,7 @@
     <t>Something You Get Through</t>
   </si>
   <si>
-    <t>Scotty McCreery</t>
-  </si>
-  <si>
-    <t>Five More Minutes</t>
-  </si>
-  <si>
-    <t>TobyMac</t>
-  </si>
-  <si>
-    <t>I just need U.</t>
-  </si>
-  <si>
-    <t>The Chainsmokers &amp; Coldplay</t>
-  </si>
-  <si>
-    <t>Something Just Like This</t>
-  </si>
-  <si>
-    <t>Hugh Jackman &amp; Zac Efron</t>
-  </si>
-  <si>
-    <t>The Other Side</t>
+    <t>100.</t>
   </si>
 </sst>
 </file>
@@ -916,805 +1225,1108 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>189</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>215</v>
+      </c>
+      <c r="C75" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>221</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>230</v>
+      </c>
+      <c r="C80" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>252</v>
+      </c>
+      <c r="C88" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>254</v>
+      </c>
+      <c r="C89" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>259</v>
+      </c>
+      <c r="C91" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>224</v>
+      </c>
+      <c r="C92" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>268</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>270</v>
+      </c>
+      <c r="C96" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>273</v>
+      </c>
+      <c r="C97" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>279</v>
+      </c>
+      <c r="C99" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>282</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>285</v>
+      </c>
+      <c r="C101" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
